--- a/M16 Project Plan Edited.xlsx
+++ b/M16 Project Plan Edited.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0330\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lane\MI6\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80AEC34-1220-4338-A5DB-68F8D93011B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A3A98-6CCF-4CBA-B4BE-22859D737E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Estimated Implementation</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>Map Layout</t>
+  </si>
+  <si>
+    <t>Secret Room Placement</t>
+  </si>
+  <si>
+    <t>Enemy Placement</t>
+  </si>
+  <si>
+    <t>Michael &amp; Jennifer</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -387,31 +408,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -691,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -878,7 +899,9 @@
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="8">
+        <v>44517</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
@@ -890,7 +913,9 @@
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>44524</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
@@ -902,8 +927,12 @@
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="8">
+        <v>44524</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +941,12 @@
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="8">
+        <v>44524</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +955,12 @@
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="8">
+        <v>44524</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,7 +1000,9 @@
       <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,12 +1011,14 @@
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="8">
+        <v>44517</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,7 +1028,9 @@
       <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1042,9 @@
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1082,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -1088,9 +1133,111 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D7)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D23">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D8)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1099,25 +1246,16 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D23">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",D8)))</formula>
+  <conditionalFormatting sqref="D24:D30">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D24)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1128,15 +1266,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D30">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",D24)))</formula>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D31)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1147,15 +1285,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
+  <conditionalFormatting sqref="D37:D44">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Not Implemented">
-      <formula>NOT(ISERROR(SEARCH("Not Implemented",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D37)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1167,11 +1305,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B36" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C36" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B44" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C44" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/M16 Project Plan Edited.xlsx
+++ b/M16 Project Plan Edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lane\MI6\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A3A98-6CCF-4CBA-B4BE-22859D737E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4496F-0EBA-4641-AD71-859BE47ED8DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,37 +255,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -714,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -822,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1210,13 +1180,13 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D7)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -1229,13 +1199,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D23">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D8)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -1248,13 +1218,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D30">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D24)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -1267,13 +1237,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D31)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
